--- a/resources/excel/template-pemotongantagihan.xlsx
+++ b/resources/excel/template-pemotongantagihan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victus\Downloads\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Project Iseng\4form-multitenant-v2.5\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E77431-F15D-48EF-A930-89BD6EAC03FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7932433-4DD9-433C-B6B7-9D3A0B37659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2D69F941-143F-430C-A993-8D37B7CB50E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D69F941-143F-430C-A993-8D37B7CB50E8}"/>
   </bookViews>
   <sheets>
     <sheet name="LAMPIRAN" sheetId="1" r:id="rId1"/>
@@ -362,10 +362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="General_)"/>
-    <numFmt numFmtId="166" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="_([$Rp-421]* #,##0_);_([$Rp-421]* \(#,##0\);_([$Rp-421]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -637,34 +637,34 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -680,13 +680,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -695,25 +695,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -726,7 +726,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -738,15 +738,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -754,12 +754,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -771,43 +771,56 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,22 +850,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -2521,7 +2521,7 @@
   <dimension ref="B2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,26 +2540,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -2679,46 +2679,46 @@
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>1</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -2777,13 +2777,13 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="6">
         <f>SUM(H18:H20)</f>
         <v>0</v>
@@ -2816,16 +2816,16 @@
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="15"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="63"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="22"/>
@@ -2851,9 +2851,9 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="15"/>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
@@ -2870,30 +2870,30 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="61"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="G32" s="59" t="s">
+      <c r="D32" s="58"/>
+      <c r="G32" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="59"/>
+      <c r="H32" s="58"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="27"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
@@ -2948,6 +2948,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="G25:H25"/>
@@ -2964,8 +2966,6 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.51181102362204722" bottom="0.23622047244094491" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
@@ -2996,26 +2996,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32"/>
@@ -3027,11 +3027,11 @@
       <c r="H4" s="32"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="33" t="s">
         <v>44</v>
       </c>
@@ -3040,11 +3040,11 @@
       <c r="H5" s="34"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="33" t="s">
         <v>45</v>
       </c>
@@ -3053,11 +3053,11 @@
       <c r="H6" s="34"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="33" t="s">
         <v>46</v>
       </c>
@@ -3066,11 +3066,11 @@
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="35" t="s">
         <v>47</v>
       </c>
@@ -3079,11 +3079,11 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="35" t="s">
         <v>48</v>
       </c>
@@ -3092,30 +3092,30 @@
       <c r="H9" s="34"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="82" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
@@ -3127,46 +3127,46 @@
       <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="74"/>
+      <c r="E13" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="37"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -3236,14 +3236,14 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="37">
         <f>SUM(H16:H18)</f>
         <v>1896240</v>
@@ -3251,14 +3251,14 @@
       <c r="J19" s="41"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="42">
         <f>H19</f>
         <v>1896240</v>
@@ -3297,11 +3297,11 @@
       <c r="H23" s="50"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="52"/>
       <c r="G24" s="53"/>
       <c r="H24" s="54" t="s">
@@ -3354,38 +3354,39 @@
       <c r="H29" s="56"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
       <c r="H30" s="57" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="54" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="B11:D11"/>
@@ -3396,14 +3397,13 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
